--- a/WebContent/Templet/3.付款凭证-中间表-维护类开发-测评业务线-纸质签字版反馈给综合室（各公司汇总总表） - 模板.xlsx
+++ b/WebContent/Templet/3.付款凭证-中间表-维护类开发-测评业务线-纸质签字版反馈给综合室（各公司汇总总表） - 模板.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\外援管理系统\6月测评线外援计提材料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\apache-tomcat-8.5.16\wtpwebapps\sshM\Templet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7605" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
-    <sheet name="爱立信" sheetId="1" r:id="rId1"/>
-    <sheet name="创科" sheetId="2" r:id="rId2"/>
-    <sheet name="中科云数" sheetId="3" r:id="rId3"/>
-    <sheet name="东方国信" sheetId="5" r:id="rId4"/>
-    <sheet name="软科" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="爱立信" sheetId="1" r:id="rId2"/>
+    <sheet name="创科" sheetId="2" r:id="rId3"/>
+    <sheet name="中科云数" sheetId="3" r:id="rId4"/>
+    <sheet name="东方国信" sheetId="5" r:id="rId5"/>
+    <sheet name="软科" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
   <si>
     <t>合同编号：SZYYGL-SBY-201611-253</t>
   </si>
@@ -888,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -940,6 +941,387 @@
       <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="61">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="63">
+        <v>636</v>
+      </c>
+      <c r="I4" s="63">
+        <v>21</v>
+      </c>
+      <c r="J4" s="63">
+        <v>0</v>
+      </c>
+      <c r="K4" s="63">
+        <f>H4*I4</f>
+        <v>13356</v>
+      </c>
+      <c r="L4" s="63">
+        <f>J4+K4</f>
+        <v>13356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="50">
+        <v>2</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="63">
+        <v>840</v>
+      </c>
+      <c r="I5" s="63">
+        <v>21</v>
+      </c>
+      <c r="J5" s="63">
+        <v>0</v>
+      </c>
+      <c r="K5" s="63">
+        <f>H5*I5</f>
+        <v>17640</v>
+      </c>
+      <c r="L5" s="63">
+        <f>J5+K5</f>
+        <v>17640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="50"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="50"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="50"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="56">
+        <f>SUM(L4:L11)</f>
+        <v>30996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="7" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
+    </row>
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1266,7 +1648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -1595,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -1990,11 +2372,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -2319,7 +2701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>

--- a/WebContent/Templet/3.付款凭证-中间表-维护类开发-测评业务线-纸质签字版反馈给综合室（各公司汇总总表） - 模板.xlsx
+++ b/WebContent/Templet/3.付款凭证-中间表-维护类开发-测评业务线-纸质签字版反馈给综合室（各公司汇总总表） - 模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\apache-tomcat-8.5.16\webapps\sshM\Templet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\git\EmployeeManagerment\WebContent\Templet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,10 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,19 +112,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -137,22 +121,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -281,73 +249,46 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -658,7 +599,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,290 +614,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
